--- a/bin/excel/SpanishEnglish-CASA3.xlsx
+++ b/bin/excel/SpanishEnglish-CASA3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7300025-9694-4B75-8CD5-4EAFA428B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F7AC36-512E-4D6C-8FE8-45660DF3F198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B8D26B72-CF22-466D-8E24-1B21C211416D}"/>
   </bookViews>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>estante de pared</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>manija</t>
   </si>
   <si>
-    <t>handle</t>
-  </si>
-  <si>
     <t>drawer dresser</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>taza de café</t>
   </si>
   <si>
-    <t>coffe mug</t>
-  </si>
-  <si>
     <t>t-shirt</t>
   </si>
   <si>
@@ -218,6 +209,93 @@
   </si>
   <si>
     <t>drinking glasses</t>
+  </si>
+  <si>
+    <t>saibord</t>
+  </si>
+  <si>
+    <t>u'ordroub</t>
+  </si>
+  <si>
+    <t>u'ol shelf</t>
+  </si>
+  <si>
+    <t>glass yar</t>
+  </si>
+  <si>
+    <t>pels batols</t>
+  </si>
+  <si>
+    <t>meniol yuucer</t>
+  </si>
+  <si>
+    <t>plastic yog</t>
+  </si>
+  <si>
+    <t>esq'uer lid</t>
+  </si>
+  <si>
+    <t>jendols</t>
+  </si>
+  <si>
+    <t>handles</t>
+  </si>
+  <si>
+    <t>dror dresser-fabric est'oregsh</t>
+  </si>
+  <si>
+    <t>dror dresser</t>
+  </si>
+  <si>
+    <t>esp'airol laind noutbok</t>
+  </si>
+  <si>
+    <t>esp'airol bla'enk noutbok</t>
+  </si>
+  <si>
+    <t>kuad ruld esp'airol noutbok</t>
+  </si>
+  <si>
+    <t>esk'etch bok pad</t>
+  </si>
+  <si>
+    <t>fen plastic jausen</t>
+  </si>
+  <si>
+    <t>ueden madol kits</t>
+  </si>
+  <si>
+    <t>cherch madol kit</t>
+  </si>
+  <si>
+    <t>tombler</t>
+  </si>
+  <si>
+    <t>plastic cop</t>
+  </si>
+  <si>
+    <t>plastic tombler</t>
+  </si>
+  <si>
+    <t>dror</t>
+  </si>
+  <si>
+    <t>col'ectebol akshen figier</t>
+  </si>
+  <si>
+    <t>uairless geimpad</t>
+  </si>
+  <si>
+    <t>kofi mog</t>
+  </si>
+  <si>
+    <t>coffee mug</t>
+  </si>
+  <si>
+    <t>ti-shert</t>
+  </si>
+  <si>
+    <t>shert</t>
   </si>
 </sst>
 </file>
@@ -576,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ABA068-687E-492D-87CF-58FAABF19440}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -758,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,13 +906,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -842,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,13 +976,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -926,13 +1004,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
